--- a/data/state_election_results/newyork_president.xlsx
+++ b/data/state_election_results/newyork_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7112BB-CE5B-7740-B918-F69A1AA6AF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A80B88-08C0-C943-9658-42FCA8DBDD8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17660" yWindow="3200" windowWidth="18140" windowHeight="16440" xr2:uid="{F943DD06-B2F9-B84C-A16E-AAB04BFD7050}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>biden.votes</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Yates</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -285,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,32 +602,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB3C036-8DF8-C648-A277-0085195E7652}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>73189</v>
@@ -644,7 +642,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>6048</v>
@@ -661,7 +659,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>271835</v>
@@ -678,7 +676,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
         <v>514133</v>
@@ -695,7 +693,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>46909</v>
@@ -712,7 +710,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>9142</v>
@@ -729,7 +727,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>16143</v>
@@ -746,7 +744,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>23075</v>
@@ -763,7 +761,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>11573</v>
@@ -780,7 +778,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>5126</v>
@@ -797,7 +795,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>12690</v>
@@ -814,7 +812,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>19764</v>
@@ -831,7 +829,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>10367</v>
@@ -848,7 +846,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>6420</v>
@@ -865,7 +863,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>57720</v>
@@ -882,7 +880,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>198808</v>
@@ -899,7 +897,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>6970</v>
@@ -916,7 +914,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>6586</v>
@@ -933,7 +931,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>5804</v>
@@ -950,7 +948,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>9625</v>
@@ -967,7 +965,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>7675</v>
@@ -984,7 +982,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>1178</v>
@@ -1001,7 +999,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>7282</v>
@@ -1018,7 +1016,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>12053</v>
@@ -1035,7 +1033,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>3823</v>
@@ -1052,7 +1050,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>12477</v>
@@ -1069,7 +1067,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>14682</v>
@@ -1086,7 +1084,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
         <v>377605</v>
@@ -1103,7 +1101,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>223936</v>
@@ -1120,7 +1118,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
         <v>5746</v>
@@ -1137,7 +1135,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>386743</v>
@@ -1154,7 +1152,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>34809</v>
@@ -1171,7 +1169,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
         <v>30542</v>
@@ -1188,7 +1186,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>116031</v>
@@ -1205,7 +1203,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>20779</v>
@@ -1222,7 +1220,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>61868</v>
@@ -1239,7 +1237,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>5587</v>
@@ -1256,7 +1254,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>20824</v>
@@ -1273,7 +1271,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
         <v>12986</v>
@@ -1290,7 +1288,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>24949</v>
@@ -1307,7 +1305,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
         <v>412393</v>
@@ -1324,7 +1322,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
         <v>40969</v>
@@ -1341,7 +1339,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2">
         <v>50926</v>
@@ -1358,7 +1356,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
         <v>13036</v>
@@ -1375,7 +1373,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2">
         <v>49697</v>
@@ -1392,7 +1390,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2">
         <v>31685</v>
@@ -1409,7 +1407,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2">
         <v>5345</v>
@@ -1426,7 +1424,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2">
         <v>3902</v>
@@ -1443,7 +1441,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2">
         <v>5076</v>
@@ -1460,7 +1458,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="2">
         <v>67223</v>
@@ -1477,7 +1475,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>11299</v>
@@ -1494,7 +1492,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>259463</v>
@@ -1511,7 +1509,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>10995</v>
@@ -1528,7 +1526,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>9498</v>
@@ -1545,7 +1543,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2">
         <v>22627</v>
@@ -1562,7 +1560,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>42606</v>
@@ -1579,7 +1577,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2">
         <v>11811</v>
@@ -1596,7 +1594,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2">
         <v>8537</v>
@@ -1613,7 +1611,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
         <v>12799</v>
@@ -1630,7 +1628,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
         <v>220963</v>
@@ -1647,7 +1645,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
         <v>5073</v>
@@ -1664,7 +1662,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>4219</v>
